--- a/shop-online/service-catalogue/src/main/resources/template/product_prices_import_vi.xlsx
+++ b/shop-online/service-catalogue/src/main/resources/template/product_prices_import_vi.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">STT</t>
+  </si>
   <si>
     <t xml:space="preserve">Mã sản phẩm</t>
   </si>
@@ -138,9 +141,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -236,45 +243,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="31.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="2" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="3" width="16.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
